--- a/test/data/1stMiyunParameterTracker_frequency.xlsx
+++ b/test/data/1stMiyunParameterTracker_frequency.xlsx
@@ -794,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.000245849103229</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="6">
@@ -818,7 +818,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9995286280255673</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="9">
@@ -842,7 +842,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9990312562657987</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="12">
@@ -866,7 +866,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9987868350652922</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="15">
@@ -890,7 +890,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9983286788077288</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="18">
@@ -914,7 +914,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9979823299108769</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="21">
@@ -938,7 +938,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9977328863328425</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="24">
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9978322512083516</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="27">
@@ -986,7 +986,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9967985845974335</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="30">
@@ -1034,7 +1034,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9955845706553325</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="36">
@@ -1058,7 +1058,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.996112262227669</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="39">
@@ -1082,7 +1082,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9953299340140827</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="42">
@@ -1106,7 +1106,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.994587590721948</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="45">
@@ -1130,7 +1130,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9945889073142957</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="48">
@@ -1154,7 +1154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9939199669950015</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="51">
@@ -1178,7 +1178,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9941325807710319</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="54">
@@ -1202,7 +1202,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9936805144799733</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="57">
@@ -1226,7 +1226,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.993434356341984</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="60">
@@ -1274,7 +1274,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9921859412878546</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="66">
@@ -1298,7 +1298,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9918512267561709</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="69">
@@ -1322,7 +1322,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9919333405848195</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="72">
@@ -1346,7 +1346,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9918223688400077</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="75">
@@ -1370,7 +1370,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9908710329207646</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="78">
@@ -1394,7 +1394,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9904760614326903</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="81">
@@ -1418,7 +1418,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9902520372402749</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="84">
@@ -1442,7 +1442,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.989784628661912</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="87">
@@ -1466,7 +1466,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9886145736612811</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="90">
@@ -1514,7 +1514,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9872157157366629</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="96">
@@ -1538,7 +1538,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9859291508720136</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="99">
@@ -1562,7 +1562,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9848997552511592</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="102">
@@ -1586,7 +1586,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9831917870789262</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="105">
@@ -1610,7 +1610,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9827052648755942</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="108">
@@ -1634,7 +1634,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9812235105813262</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="111">
@@ -1658,7 +1658,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9793604545634823</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="114">
@@ -1682,7 +1682,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9773453444350515</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="117">
@@ -1706,7 +1706,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9755681933224397</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="120">
@@ -1754,7 +1754,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9719973440910249</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="126">
@@ -1778,7 +1778,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9693418537902774</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="129">
@@ -1802,7 +1802,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.9672419904817164</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="132">
@@ -1826,7 +1826,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.9644687554042558</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="135">
@@ -1850,7 +1850,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.9621853134238587</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="138">
@@ -1874,7 +1874,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9593046680631052</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="141">
@@ -1898,7 +1898,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.956359112840297</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="144">
@@ -1922,7 +1922,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.953783170837173</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="147">
@@ -1946,7 +1946,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.9502502368284127</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="150">
@@ -1994,7 +1994,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.9431743199481503</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="156">
@@ -2018,7 +2018,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.9404059025735684</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="159">
@@ -2042,7 +2042,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.936777807072101</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="162">
@@ -2066,7 +2066,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.9340039525840063</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="165">
@@ -2090,7 +2090,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.9309383835048354</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="168">
@@ -2114,7 +2114,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.9280811145653322</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="171">
@@ -2138,7 +2138,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.9249877390081819</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="174">
@@ -2162,7 +2162,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.9218212295969941</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="177">
@@ -2186,7 +2186,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.9191044190143086</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="180">
@@ -2234,7 +2234,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.9129672957842934</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="186">
@@ -2258,7 +2258,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.9101977328534023</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="189">
@@ -2282,7 +2282,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.9075990479712523</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="192">
@@ -2306,7 +2306,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.9036387656712362</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="195">
@@ -2330,7 +2330,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.8996740089160775</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="198">
@@ -2354,7 +2354,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.8958911153211195</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="201">
@@ -2378,7 +2378,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.8904523449046755</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="204">
@@ -2402,7 +2402,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.8853244338250212</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="207">
@@ -2426,7 +2426,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.8791400942659022</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="210">
@@ -2474,7 +2474,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.866177179376275</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="216">
@@ -2498,7 +2498,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.8592825995650146</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="219">
@@ -2522,7 +2522,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>0.8521341325587996</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="222">
@@ -2546,7 +2546,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>0.8449017053877453</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="225">
@@ -2570,7 +2570,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0.8380222010430397</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="228">
@@ -2594,7 +2594,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>0.8310872124211972</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="231">
@@ -2618,7 +2618,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>0.8246083447729404</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="234">
@@ -2642,7 +2642,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>0.8182601995676979</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="237">
@@ -2666,7 +2666,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>0.8121617833119703</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="240">
@@ -2714,7 +2714,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>0.8015641320771808</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="246">
@@ -2738,7 +2738,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>0.7966722539616825</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="249">
@@ -2762,7 +2762,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>0.7909768087721671</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="252">
@@ -2786,7 +2786,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0.7862225043270449</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="255">
@@ -2810,7 +2810,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>0.7811637428457978</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="258">
@@ -2834,7 +2834,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>0.7753738979826819</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="261">
@@ -2858,7 +2858,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>0.77017796860586</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="264">
@@ -2882,7 +2882,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>0.764337422860731</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="267">
@@ -2906,7 +2906,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>0.759169227898446</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="270">
@@ -2954,7 +2954,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>0.7481515537305161</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="276">
@@ -2978,7 +2978,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>0.7428743865340461</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="279">
@@ -3002,7 +3002,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>0.7381937596142156</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="282">
@@ -3026,7 +3026,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>0.7330258230886573</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="285">
@@ -3050,7 +3050,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>0.7291801049587792</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="288">
@@ -3074,7 +3074,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>0.7256614031329284</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="291">
@@ -3098,7 +3098,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>0.7225061612842582</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="294">
@@ -3122,7 +3122,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>0.7202594936849875</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="297">
@@ -3146,7 +3146,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>0.7186427891925365</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="300">
@@ -3194,7 +3194,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>0.7162364560782247</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="306">
@@ -3218,7 +3218,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>0.7155348755895722</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="309">
@@ -3242,7 +3242,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>0.7154127637902253</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="312">
@@ -3266,7 +3266,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>0.7150046260867901</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="315">
@@ -3290,7 +3290,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>0.7151138503907869</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="318">
@@ -3314,7 +3314,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>0.7149902068475639</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="321">
@@ -3338,7 +3338,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>0.7147591102690948</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="324">
@@ -3362,7 +3362,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>0.7145989867468585</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="327">
@@ -3386,7 +3386,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>0.7151617529702542</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="330">
@@ -3434,7 +3434,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>0.7141518429125223</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="336">
@@ -3458,7 +3458,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>0.7138229960384384</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="339">
@@ -3482,7 +3482,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>0.7142527852401512</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="342">
@@ -3506,7 +3506,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>0.7135118895238188</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="345">
@@ -3530,7 +3530,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>0.7132954150556723</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="348">
@@ -3554,7 +3554,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>0.7131535132072018</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="351">
@@ -3578,7 +3578,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>0.7124351979721706</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="354">
@@ -3602,7 +3602,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>0.7122713398289958</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="357">
@@ -3626,7 +3626,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>0.711990907919138</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="360">
@@ -3674,7 +3674,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>0.7115475361838595</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="366">
@@ -3698,7 +3698,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>0.7111551743496747</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="369">
@@ -3722,7 +3722,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>0.7106926836892378</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="372">
@@ -3746,7 +3746,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>0.7108133849083307</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="375">
@@ -3770,7 +3770,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>0.7104845652458077</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="378">
@@ -3794,7 +3794,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>0.7100931622234269</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="381">
@@ -3818,7 +3818,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>0.7099631784575428</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="384">
@@ -3842,7 +3842,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>0.7096522752812643</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="387">
@@ -3866,7 +3866,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>0.7091165741776517</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="390">
@@ -3914,7 +3914,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>0.7086209872499862</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="396">
@@ -3938,7 +3938,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>0.7088772827958028</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="399">
@@ -3962,7 +3962,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>0.7086459695759935</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="402">
@@ -3986,7 +3986,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>0.7083986844657881</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="405">
@@ -4010,7 +4010,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>0.7080861967895306</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="408">
@@ -4034,7 +4034,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>0.7077456468291426</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="411">
@@ -4058,7 +4058,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>0.7077005422305741</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="414">
@@ -4082,7 +4082,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>0.7076380654816743</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="417">
@@ -4106,7 +4106,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>0.7070701713285994</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="420">
@@ -4154,7 +4154,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>0.7065109245923255</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="426">
@@ -4178,7 +4178,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>0.706360765729357</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="429">
@@ -4202,7 +4202,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>0.7058861635640468</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="432">
@@ -4226,7 +4226,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>0.7056203293244179</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="435">
@@ -4250,7 +4250,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>0.705078588881502</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="438">
@@ -4274,7 +4274,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>0.7046815649949917</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="441">
@@ -4298,7 +4298,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>0.7037390487501585</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="444">
@@ -4322,7 +4322,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>0.7035042981622169</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="447">
@@ -4346,7 +4346,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>0.7024354996927648</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="450">
@@ -4394,7 +4394,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>0.7010391639547157</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="456">
@@ -4418,7 +4418,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>0.6999859793355122</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="459">
@@ -4442,7 +4442,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>0.699129166024292</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="462">
@@ -4466,7 +4466,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>0.6981175110192405</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="465">
@@ -4490,7 +4490,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>0.6977751477194382</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="468">
@@ -4514,7 +4514,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>0.6960503020873331</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="471">
@@ -4538,7 +4538,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>0.6956852348484426</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="474">
@@ -4562,7 +4562,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>0.6955556007221015</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="477">
@@ -4586,7 +4586,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>0.6946282632924871</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="480">
@@ -4634,7 +4634,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>0.6943454766934338</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="486">
@@ -4658,7 +4658,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>0.6947190494321638</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="489">
@@ -4682,7 +4682,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>0.6944696689922802</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="492">
@@ -4706,7 +4706,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>0.6946393747700674</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="495">
@@ -4730,7 +4730,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>0.6944128740496396</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="498">
@@ -4754,7 +4754,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>0.6942307572142304</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="501">
@@ -4778,7 +4778,7 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>0.6944205286400283</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="504">
@@ -4802,7 +4802,7 @@
         <v>504</v>
       </c>
       <c r="B506" t="n">
-        <v>0.6943601118644607</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="507">
@@ -4826,7 +4826,7 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>0.6941247170626358</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="510">
@@ -4874,7 +4874,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>0.6940473931866298</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="516">
@@ -4898,7 +4898,7 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>0.6945233294253097</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="519">
@@ -4922,7 +4922,7 @@
         <v>519</v>
       </c>
       <c r="B521" t="n">
-        <v>0.6947632884331765</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="522">
@@ -4946,7 +4946,7 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>0.6941028328683501</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="525">
@@ -4970,7 +4970,7 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>0.6942557028921436</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="528">
@@ -4994,7 +4994,7 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>0.693970049008282</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="531">
@@ -5018,7 +5018,7 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>0.6945041841766956</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="534">
@@ -5042,7 +5042,7 @@
         <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>0.6938189005133391</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="537">
@@ -5066,7 +5066,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>0.6930824944280192</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="540">
@@ -5114,7 +5114,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>0.6896174870747436</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="546">
@@ -5138,7 +5138,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>0.6866873540960529</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="549">
@@ -5162,7 +5162,7 @@
         <v>549</v>
       </c>
       <c r="B551" t="n">
-        <v>0.6829252932274632</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="552">
@@ -5186,7 +5186,7 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>0.6792572024622285</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="555">
@@ -5210,7 +5210,7 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>0.6749087688441245</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="558">
@@ -5234,7 +5234,7 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>0.6696356306531012</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="561">
@@ -5258,7 +5258,7 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>0.6648133123882577</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="564">
@@ -5282,7 +5282,7 @@
         <v>564</v>
       </c>
       <c r="B566" t="n">
-        <v>0.65941270801802</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="567">
@@ -5306,7 +5306,7 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>0.6542432506494366</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="570">
@@ -5354,7 +5354,7 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>0.6432678992915375</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="576">
@@ -5378,7 +5378,7 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>0.6375064395481913</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="579">
@@ -5402,7 +5402,7 @@
         <v>579</v>
       </c>
       <c r="B581" t="n">
-        <v>0.6324316447713679</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="582">
@@ -5426,7 +5426,7 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>0.6267094678207938</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="585">
@@ -5450,7 +5450,7 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>0.6216149173316069</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="588">
@@ -5474,7 +5474,7 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>0.6165490424343825</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="591">
@@ -5498,7 +5498,7 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>0.6117594251353884</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="594">
@@ -5522,7 +5522,7 @@
         <v>594</v>
       </c>
       <c r="B596" t="n">
-        <v>0.6069756266749264</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="597">
@@ -5546,7 +5546,7 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>0.6022864819132485</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="600">
@@ -5594,7 +5594,7 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>0.5937353849391808</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="606">
@@ -5618,7 +5618,7 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>0.5896567805473498</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="609">
@@ -5642,7 +5642,7 @@
         <v>609</v>
       </c>
       <c r="B611" t="n">
-        <v>0.5857907228768739</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="612">
@@ -5666,7 +5666,7 @@
         <v>612</v>
       </c>
       <c r="B614" t="n">
-        <v>0.5823271367931983</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="615">
@@ -5690,7 +5690,7 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>0.5788693305862188</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="618">
@@ -5714,7 +5714,7 @@
         <v>618</v>
       </c>
       <c r="B620" t="n">
-        <v>0.5757803344989798</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="621">
@@ -5738,7 +5738,7 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>0.5724757042441483</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="624">
@@ -5762,7 +5762,7 @@
         <v>624</v>
       </c>
       <c r="B626" t="n">
-        <v>0.5696243827594464</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="627">
@@ -5786,7 +5786,7 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>0.5672728351707129</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="630">
@@ -5834,7 +5834,7 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>0.5621064122651638</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="636">
@@ -5858,7 +5858,7 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>0.5598312965433042</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="639">
@@ -5882,7 +5882,7 @@
         <v>639</v>
       </c>
       <c r="B641" t="n">
-        <v>0.5581360621777273</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="642">
@@ -5906,7 +5906,7 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>0.5561667589688191</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="645">
@@ -5930,7 +5930,7 @@
         <v>645</v>
       </c>
       <c r="B647" t="n">
-        <v>0.5541612363227276</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="648">
@@ -5954,7 +5954,7 @@
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>0.5524258161224657</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="651">
@@ -5978,7 +5978,7 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>0.5505709576550222</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="654">
@@ -6002,7 +6002,7 @@
         <v>654</v>
       </c>
       <c r="B656" t="n">
-        <v>0.5494573317701859</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="657">
@@ -6026,7 +6026,7 @@
         <v>657</v>
       </c>
       <c r="B659" t="n">
-        <v>0.5477991373445423</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="660">
@@ -6074,7 +6074,7 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>0.5453785885765384</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="666">
@@ -6098,7 +6098,7 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>0.5441336874543508</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="669">
@@ -6122,7 +6122,7 @@
         <v>669</v>
       </c>
       <c r="B671" t="n">
-        <v>0.5430202252948193</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="672">
@@ -6146,7 +6146,7 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>0.5415434248516058</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="675">
@@ -6170,7 +6170,7 @@
         <v>675</v>
       </c>
       <c r="B677" t="n">
-        <v>0.5408096544423037</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="678">
@@ -6194,7 +6194,7 @@
         <v>678</v>
       </c>
       <c r="B680" t="n">
-        <v>0.5399166973778551</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="681">
@@ -6218,7 +6218,7 @@
         <v>681</v>
       </c>
       <c r="B683" t="n">
-        <v>0.5388619943044727</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="684">
@@ -6242,7 +6242,7 @@
         <v>684</v>
       </c>
       <c r="B686" t="n">
-        <v>0.5376245914835681</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="687">
@@ -6266,7 +6266,7 @@
         <v>687</v>
       </c>
       <c r="B689" t="n">
-        <v>0.5365521127027894</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="690">
@@ -6314,7 +6314,7 @@
         <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>0.5348033562431652</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="696">
@@ -6338,7 +6338,7 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>0.5342303471568827</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="699">
@@ -6362,7 +6362,7 @@
         <v>699</v>
       </c>
       <c r="B701" t="n">
-        <v>0.5337138112339854</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="702">
@@ -6386,7 +6386,7 @@
         <v>702</v>
       </c>
       <c r="B704" t="n">
-        <v>0.5327713304528475</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="705">
@@ -6410,7 +6410,7 @@
         <v>705</v>
       </c>
       <c r="B707" t="n">
-        <v>0.53260638109741</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="708">
@@ -6434,7 +6434,7 @@
         <v>708</v>
       </c>
       <c r="B710" t="n">
-        <v>0.531954898727487</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="711">
@@ -6458,7 +6458,7 @@
         <v>711</v>
       </c>
       <c r="B713" t="n">
-        <v>0.5314226801174882</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="714">
@@ -6482,7 +6482,7 @@
         <v>714</v>
       </c>
       <c r="B716" t="n">
-        <v>0.5311507142878484</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="717">
@@ -6506,7 +6506,7 @@
         <v>717</v>
       </c>
       <c r="B719" t="n">
-        <v>0.5305960139475372</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="720">
@@ -6554,7 +6554,7 @@
         <v>723</v>
       </c>
       <c r="B725" t="n">
-        <v>0.5302451075451949</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="726">
@@ -6578,7 +6578,7 @@
         <v>726</v>
       </c>
       <c r="B728" t="n">
-        <v>0.5300832075723845</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="729">
@@ -6602,7 +6602,7 @@
         <v>729</v>
       </c>
       <c r="B731" t="n">
-        <v>0.5302850468024997</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="732">
